--- a/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2EB5D4-69B7-1749-A494-902F06F20822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4084F08-EEBE-CE45-BDE7-E86250724D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36220" yWindow="2440" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Database</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>RER</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Assumed 90% of cooling water is released back.</t>
+  </si>
+  <si>
+    <t>Assumed 10% of cooling water is evaporated.</t>
   </si>
 </sst>
 </file>
@@ -672,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T362"/>
+  <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -996,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J25" si="0">LN(B15)</f>
+        <f t="shared" ref="J15:J27" si="0">LN(B15)</f>
         <v>-11.417615285165903</v>
       </c>
       <c r="K15" s="20">
@@ -1087,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R15:R25" si="1">LN(SQRT(EXP(
+        <f t="shared" ref="R16:R27" si="1">LN(SQRT(EXP(
 SQRT(
 +POWER(LN(K16),2)
 +POWER(LN(L16),2)
@@ -1487,154 +1499,193 @@
     </row>
     <row r="24" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="33">
+        <f>B23*0.9/1000</f>
+        <v>6.9764876122254829E-3</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="33">
+        <f>B23*0.1/1000</f>
+        <v>7.7516529024727584E-4</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B26" s="33">
         <f>7.23*B8</f>
         <v>6.9361943669403523</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I26" s="12">
         <v>2</v>
       </c>
-      <c r="J24">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>1.9367532620008818</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K26" s="20">
         <v>1.2</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L26" s="20">
         <v>1.2</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M26" s="20">
         <v>1.03</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N26" s="20">
         <v>1.01</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O26" s="20">
         <v>1.2</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P26" s="20">
         <v>1.2</v>
       </c>
-      <c r="Q24">
+      <c r="Q26">
         <v>1.05</v>
       </c>
-      <c r="R24">
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>0.18460621081155912</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+    <row r="27" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B27" s="33">
         <f>2.5*B8</f>
         <v>2.3984074574482546</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12">
+      <c r="H27" s="11"/>
+      <c r="I27" s="12">
         <v>2</v>
       </c>
-      <c r="J25">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>0.87480495770436362</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K27" s="20">
         <v>1.2</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L27" s="20">
         <v>1.2</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M27" s="20">
         <v>1.03</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N27" s="20">
         <v>1.01</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O27" s="20">
         <v>1.2</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P27" s="20">
         <v>1.2</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q27" s="20">
         <v>1.05</v>
       </c>
-      <c r="R25">
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>0.18460621081155912</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-    </row>
     <row r="28" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
       <c r="B28" s="17"/>
-      <c r="J28"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28"/>
-      <c r="R28"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
       <c r="B29" s="17"/>
-      <c r="J29"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29"/>
-      <c r="R29"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
@@ -1686,8 +1737,6 @@
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
-      <c r="E34" s="11"/>
-      <c r="H34" s="11"/>
       <c r="J34"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -1700,7 +1749,6 @@
     </row>
     <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
-      <c r="H35" s="11"/>
       <c r="J35"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -1713,6 +1761,8 @@
     </row>
     <row r="36" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
+      <c r="E36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="J36"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -1725,6 +1775,7 @@
     </row>
     <row r="37" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
+      <c r="H37" s="11"/>
       <c r="J37"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -1773,8 +1824,6 @@
     </row>
     <row r="41" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
-      <c r="E41" s="11"/>
-      <c r="G41" s="11"/>
       <c r="J41"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
@@ -1787,8 +1836,6 @@
     </row>
     <row r="42" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="17"/>
-      <c r="E42" s="11"/>
-      <c r="G42" s="11"/>
       <c r="J42"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -1796,42 +1843,50 @@
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
+      <c r="Q42"/>
       <c r="R42"/>
     </row>
     <row r="43" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="E43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="J43"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43"/>
+      <c r="R43"/>
     </row>
     <row r="44" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
+      <c r="B44" s="17"/>
+      <c r="E44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="J44"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44"/>
     </row>
     <row r="45" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="26"/>
+      <c r="B45" s="17"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="K46" s="13"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="K46" s="25"/>
       <c r="L46" s="26"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -1840,19 +1895,19 @@
     </row>
     <row r="47" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="B47" s="15"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="1:18" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+      <c r="L48" s="26"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -1861,8 +1916,6 @@
     <row r="49" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -1870,16 +1923,9 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+    <row r="50" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -1888,31 +1934,25 @@
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="24"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="8"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="K52" s="13"/>
@@ -1920,33 +1960,42 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="27"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="17"/>
-      <c r="H53" s="28"/>
-      <c r="J53"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53"/>
-      <c r="R53"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="8"/>
     </row>
     <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
       <c r="B54" s="17"/>
-      <c r="H54" s="28"/>
-      <c r="J54"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54"/>
-      <c r="R54"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="27"/>
     </row>
     <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="17"/>
@@ -2015,7 +2064,7 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="28"/>
       <c r="J60"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -2028,7 +2077,7 @@
     </row>
     <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="28"/>
       <c r="J61"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -2507,10 +2556,8 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="30"/>
-      <c r="G98" s="11"/>
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="17"/>
       <c r="H98" s="11"/>
       <c r="J98"/>
       <c r="K98" s="20"/>
@@ -2523,9 +2570,7 @@
       <c r="R98"/>
     </row>
     <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="D99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="B99" s="17"/>
       <c r="H99" s="11"/>
       <c r="J99"/>
       <c r="K99" s="20"/>
@@ -2537,9 +2582,9 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="29"/>
       <c r="B100" s="30"/>
-      <c r="D100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="J100"/>
@@ -2553,8 +2598,10 @@
       <c r="R100"/>
     </row>
     <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B101" s="17"/>
+      <c r="B101" s="30"/>
+      <c r="D101" s="11"/>
       <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
       <c r="J101"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -2566,38 +2613,46 @@
       <c r="R101"/>
     </row>
     <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B102" s="17"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
+      <c r="B102" s="30"/>
+      <c r="D102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="J102"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102"/>
+      <c r="R102"/>
     </row>
     <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
+      <c r="B103" s="17"/>
+      <c r="G103" s="11"/>
+      <c r="J103"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103"/>
+      <c r="R103"/>
     </row>
     <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="26"/>
+      <c r="B104" s="17"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
     </row>
     <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="K105" s="13"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="K105" s="25"/>
       <c r="L105" s="26"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
@@ -2606,19 +2661,19 @@
     </row>
     <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
-      <c r="B106" s="17"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
+      <c r="B106" s="15"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="26"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
+      <c r="L107" s="26"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
@@ -2627,8 +2682,6 @@
     <row r="108" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="17"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
@@ -2636,16 +2689,9 @@
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
     </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
+    <row r="109" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
@@ -2654,35 +2700,27 @@
       <c r="P109" s="13"/>
     </row>
     <row r="110" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="24"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="17"/>
+      <c r="H110" s="18"/>
       <c r="I110" s="18"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="8"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
     </row>
     <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="E111" s="11"/>
-      <c r="G111" s="17"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
@@ -2691,30 +2729,43 @@
       <c r="P111" s="13"/>
     </row>
     <row r="112" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B112" s="17"/>
-      <c r="J112"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="20"/>
-      <c r="R112"/>
-    </row>
-    <row r="113" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="18"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="8"/>
+    </row>
+    <row r="113" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
       <c r="B113" s="17"/>
-      <c r="J113"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113"/>
-    </row>
-    <row r="114" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E113" s="11"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+    </row>
+    <row r="114" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="17"/>
       <c r="J114"/>
       <c r="K114" s="20"/>
@@ -2726,7 +2777,7 @@
       <c r="Q114" s="20"/>
       <c r="R114"/>
     </row>
-    <row r="115" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="17"/>
       <c r="J115"/>
       <c r="K115" s="20"/>
@@ -2738,7 +2789,7 @@
       <c r="Q115" s="20"/>
       <c r="R115"/>
     </row>
-    <row r="116" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="J116"/>
       <c r="K116" s="20"/>
@@ -2750,7 +2801,7 @@
       <c r="Q116" s="20"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="J117"/>
       <c r="K117" s="20"/>
@@ -2762,7 +2813,7 @@
       <c r="Q117" s="20"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="J118"/>
       <c r="K118" s="20"/>
@@ -2774,7 +2825,7 @@
       <c r="Q118" s="20"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="J119"/>
       <c r="K119" s="20"/>
@@ -2786,7 +2837,7 @@
       <c r="Q119" s="20"/>
       <c r="R119"/>
     </row>
-    <row r="120" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="J120"/>
       <c r="K120" s="20"/>
@@ -2798,7 +2849,7 @@
       <c r="Q120" s="20"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="J121"/>
       <c r="K121" s="20"/>
@@ -2810,7 +2861,7 @@
       <c r="Q121" s="20"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="J122"/>
       <c r="K122" s="20"/>
@@ -2822,7 +2873,7 @@
       <c r="Q122" s="20"/>
       <c r="R122"/>
     </row>
-    <row r="123" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="J123"/>
       <c r="K123" s="20"/>
@@ -2834,7 +2885,7 @@
       <c r="Q123" s="20"/>
       <c r="R123"/>
     </row>
-    <row r="124" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="J124"/>
       <c r="K124" s="20"/>
@@ -2846,7 +2897,7 @@
       <c r="Q124" s="20"/>
       <c r="R124"/>
     </row>
-    <row r="125" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="J125"/>
       <c r="K125" s="20"/>
@@ -2858,7 +2909,7 @@
       <c r="Q125" s="20"/>
       <c r="R125"/>
     </row>
-    <row r="126" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="J126"/>
       <c r="K126" s="20"/>
@@ -2870,7 +2921,7 @@
       <c r="Q126" s="20"/>
       <c r="R126"/>
     </row>
-    <row r="127" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="J127"/>
       <c r="K127" s="20"/>
@@ -2882,7 +2933,7 @@
       <c r="Q127" s="20"/>
       <c r="R127"/>
     </row>
-    <row r="128" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="J128"/>
       <c r="K128" s="20"/>
@@ -3076,27 +3127,30 @@
     </row>
     <row r="144" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
-      <c r="M144" s="13"/>
-      <c r="N144" s="13"/>
-      <c r="O144" s="13"/>
-      <c r="P144" s="13"/>
+      <c r="J144"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144"/>
     </row>
     <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="11"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
-      <c r="O145" s="13"/>
-      <c r="P145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="J145"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145"/>
     </row>
     <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="17"/>
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
@@ -3105,8 +3159,9 @@
       <c r="P146" s="13"/>
     </row>
     <row r="147" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="11"/>
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
@@ -3116,7 +3171,7 @@
     </row>
     <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="15"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -3136,10 +3191,7 @@
     </row>
     <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
-      <c r="B150" s="17"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
+      <c r="B150" s="16"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -3148,16 +3200,8 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="18"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
@@ -3166,70 +3210,74 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="24"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="17"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="18"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="8"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="8"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
+      <c r="O152" s="13"/>
+      <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="E153" s="11"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
       <c r="P153" s="13"/>
-      <c r="T153"/>
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="17"/>
-      <c r="J154"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
-      <c r="Q154"/>
-      <c r="R154"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="8"/>
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
-      <c r="J155"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="20"/>
-      <c r="O155" s="20"/>
-      <c r="P155" s="20"/>
-      <c r="Q155"/>
-      <c r="R155"/>
+      <c r="B155" s="17"/>
+      <c r="E155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="13"/>
+      <c r="T155"/>
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="14"/>
-      <c r="B156" s="17"/>
-      <c r="E156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="A156" s="17"/>
       <c r="J156"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
@@ -3241,11 +3289,7 @@
       <c r="R156"/>
     </row>
     <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="14"/>
-      <c r="B157" s="17"/>
-      <c r="E157" s="11"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="11"/>
+      <c r="A157" s="17"/>
       <c r="J157"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
@@ -3259,7 +3303,8 @@
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
-      <c r="H158" s="21"/>
+      <c r="E158" s="11"/>
+      <c r="H158" s="11"/>
       <c r="J158"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
@@ -3271,14 +3316,11 @@
       <c r="R158"/>
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="22"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="23"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="17"/>
+      <c r="E159" s="11"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="11"/>
       <c r="J159"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
@@ -3286,31 +3328,44 @@
       <c r="N159" s="20"/>
       <c r="O159" s="20"/>
       <c r="P159" s="20"/>
-      <c r="Q159" s="20"/>
+      <c r="Q159"/>
       <c r="R159"/>
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="14"/>
       <c r="B160" s="17"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
+      <c r="H160" s="21"/>
+      <c r="J160"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="20"/>
+      <c r="Q160"/>
+      <c r="R160"/>
     </row>
     <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
-      <c r="K161" s="13"/>
-      <c r="L161" s="13"/>
-      <c r="M161" s="13"/>
-      <c r="N161" s="13"/>
-      <c r="O161" s="13"/>
-      <c r="P161" s="13"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="23"/>
+      <c r="J161"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
+      <c r="R161"/>
     </row>
     <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="17"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
@@ -3319,8 +3374,8 @@
       <c r="P162" s="13"/>
     </row>
     <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="10"/>
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
@@ -3330,7 +3385,7 @@
     </row>
     <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
-      <c r="B164" s="17"/>
+      <c r="B164" s="15"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
@@ -3359,16 +3414,8 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="18"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
@@ -3377,30 +3424,26 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="18"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="8"/>
-      <c r="R168" s="8"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="8"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="17"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
+      <c r="O168" s="13"/>
+      <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
@@ -3409,28 +3452,36 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B170" s="13"/>
-      <c r="J170"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
-      <c r="M170" s="20"/>
-      <c r="N170" s="20"/>
-      <c r="O170" s="20"/>
-      <c r="P170" s="20"/>
-      <c r="Q170"/>
-      <c r="R170"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="8"/>
+      <c r="R170" s="8"/>
+      <c r="S170" s="18"/>
+      <c r="T170" s="8"/>
     </row>
     <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B171" s="13"/>
-      <c r="J171"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="20"/>
-      <c r="N171" s="20"/>
-      <c r="O171" s="20"/>
-      <c r="P171" s="20"/>
-      <c r="Q171"/>
-      <c r="R171"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="13"/>
+      <c r="O171" s="13"/>
+      <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B172" s="13"/>
@@ -3458,8 +3509,6 @@
     </row>
     <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="13"/>
-      <c r="E174" s="11"/>
-      <c r="G174" s="11"/>
       <c r="J174"/>
       <c r="K174" s="20"/>
       <c r="L174" s="20"/>
@@ -3472,8 +3521,6 @@
     </row>
     <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="13"/>
-      <c r="E175" s="11"/>
-      <c r="G175" s="11"/>
       <c r="J175"/>
       <c r="K175" s="20"/>
       <c r="L175" s="20"/>
@@ -3499,40 +3546,48 @@
       <c r="R176"/>
     </row>
     <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B177" s="17"/>
-      <c r="F177" s="11"/>
+      <c r="B177" s="13"/>
+      <c r="E177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="K177" s="13"/>
-      <c r="L177" s="13"/>
-      <c r="M177" s="13"/>
-      <c r="N177" s="13"/>
-      <c r="O177" s="13"/>
-      <c r="P177" s="13"/>
+      <c r="J177"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="20"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="20"/>
+      <c r="Q177"/>
+      <c r="R177"/>
     </row>
     <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="26"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
-      <c r="O178" s="13"/>
-      <c r="P178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="E178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="J178"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="20"/>
+      <c r="Q178"/>
+      <c r="R178"/>
     </row>
     <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="26"/>
+      <c r="B179" s="17"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="13"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
       <c r="P179" s="13"/>
     </row>
     <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="K180" s="13"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="10"/>
+      <c r="K180" s="25"/>
       <c r="L180" s="26"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
@@ -3541,19 +3596,19 @@
     </row>
     <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
-      <c r="B181" s="17"/>
-      <c r="K181" s="13"/>
-      <c r="L181" s="13"/>
+      <c r="B181" s="15"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="26"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="K182" s="13"/>
-      <c r="L182" s="13"/>
+      <c r="L182" s="26"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -3562,8 +3617,6 @@
     <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
       <c r="B183" s="17"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
@@ -3571,16 +3624,9 @@
       <c r="O183" s="13"/>
       <c r="P183" s="13"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="18"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="14"/>
+      <c r="B184" s="15"/>
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
@@ -3589,34 +3635,27 @@
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="18"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="24"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="17"/>
+      <c r="H185" s="18"/>
       <c r="I185" s="18"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="8"/>
-      <c r="R185" s="8"/>
-      <c r="S185" s="18"/>
-      <c r="T185" s="8"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="13"/>
+      <c r="M185" s="13"/>
+      <c r="N185" s="13"/>
+      <c r="O185" s="13"/>
+      <c r="P185" s="13"/>
     </row>
     <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="G186" s="17"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
-      <c r="J186" s="11"/>
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
@@ -3625,30 +3664,40 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B187" s="17"/>
-      <c r="H187" s="28"/>
-      <c r="J187"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
-      <c r="N187" s="20"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="20"/>
-      <c r="Q187"/>
-      <c r="R187"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="8"/>
+      <c r="R187" s="8"/>
+      <c r="S187" s="18"/>
+      <c r="T187" s="8"/>
     </row>
     <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="17"/>
       <c r="B188" s="17"/>
-      <c r="H188" s="28"/>
-      <c r="J188"/>
-      <c r="K188" s="20"/>
-      <c r="L188" s="20"/>
-      <c r="M188" s="20"/>
-      <c r="N188" s="20"/>
-      <c r="O188" s="20"/>
-      <c r="P188" s="20"/>
-      <c r="Q188"/>
-      <c r="R188"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
+      <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B189" s="17"/>
@@ -3717,7 +3766,7 @@
     </row>
     <row r="194" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="17"/>
-      <c r="H194" s="11"/>
+      <c r="H194" s="28"/>
       <c r="J194"/>
       <c r="K194" s="20"/>
       <c r="L194" s="20"/>
@@ -3730,7 +3779,7 @@
     </row>
     <row r="195" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" s="17"/>
-      <c r="H195" s="11"/>
+      <c r="H195" s="28"/>
       <c r="J195"/>
       <c r="K195" s="20"/>
       <c r="L195" s="20"/>
@@ -4352,10 +4401,8 @@
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="29"/>
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B243" s="17"/>
-      <c r="G243" s="11"/>
       <c r="H243" s="11"/>
       <c r="J243"/>
       <c r="K243" s="20"/>
@@ -4368,9 +4415,7 @@
       <c r="R243"/>
     </row>
     <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B244" s="30"/>
-      <c r="D244" s="11"/>
-      <c r="G244" s="11"/>
+      <c r="B244" s="17"/>
       <c r="H244" s="11"/>
       <c r="J244"/>
       <c r="K244" s="20"/>
@@ -4382,9 +4427,11 @@
       <c r="Q244"/>
       <c r="R244"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="29"/>
       <c r="B245" s="17"/>
       <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
       <c r="J245"/>
       <c r="K245" s="20"/>
       <c r="L245" s="20"/>
@@ -4396,33 +4443,40 @@
       <c r="R245"/>
     </row>
     <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B246" s="17"/>
-      <c r="C246" s="11"/>
-      <c r="F246" s="11"/>
+      <c r="B246" s="30"/>
+      <c r="D246" s="11"/>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
-      <c r="I246" s="11"/>
-      <c r="K246" s="13"/>
-      <c r="L246" s="13"/>
-      <c r="M246" s="13"/>
-      <c r="N246" s="13"/>
-      <c r="O246" s="13"/>
-      <c r="P246" s="13"/>
+      <c r="J246"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="20"/>
+      <c r="N246" s="20"/>
+      <c r="O246" s="20"/>
+      <c r="P246" s="20"/>
+      <c r="Q246"/>
+      <c r="R246"/>
     </row>
     <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="9"/>
-      <c r="B247" s="10"/>
-      <c r="C247" s="11"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="13"/>
-      <c r="N247" s="13"/>
-      <c r="O247" s="13"/>
-      <c r="P247" s="13"/>
+      <c r="B247" s="17"/>
+      <c r="G247" s="11"/>
+      <c r="J247"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
+      <c r="N247" s="20"/>
+      <c r="O247" s="20"/>
+      <c r="P247" s="20"/>
+      <c r="Q247"/>
+      <c r="R247"/>
     </row>
     <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="14"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
@@ -4431,8 +4485,9 @@
       <c r="P248" s="13"/>
     </row>
     <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="14"/>
-      <c r="B249" s="15"/>
+      <c r="A249" s="9"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="11"/>
       <c r="K249" s="13"/>
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
@@ -4442,7 +4497,7 @@
     </row>
     <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
@@ -4462,10 +4517,7 @@
     </row>
     <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
-      <c r="B252" s="17"/>
-      <c r="H252" s="18"/>
-      <c r="I252" s="18"/>
-      <c r="J252" s="18"/>
+      <c r="B252" s="16"/>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
@@ -4474,16 +4526,8 @@
       <c r="P252" s="13"/>
     </row>
     <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="18"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="18"/>
-      <c r="H253" s="11"/>
-      <c r="I253" s="11"/>
-      <c r="J253" s="11"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="15"/>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
@@ -4492,70 +4536,74 @@
       <c r="P253" s="13"/>
     </row>
     <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="18"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
-      <c r="H254" s="24"/>
+      <c r="A254" s="14"/>
+      <c r="B254" s="17"/>
+      <c r="H254" s="18"/>
       <c r="I254" s="18"/>
-      <c r="J254" s="8"/>
-      <c r="K254" s="19"/>
-      <c r="L254" s="19"/>
-      <c r="M254" s="19"/>
-      <c r="N254" s="19"/>
-      <c r="O254" s="19"/>
-      <c r="P254" s="19"/>
-      <c r="Q254" s="8"/>
-      <c r="R254" s="8"/>
-      <c r="S254" s="18"/>
-      <c r="T254" s="8"/>
+      <c r="J254" s="18"/>
+      <c r="K254" s="13"/>
+      <c r="L254" s="13"/>
+      <c r="M254" s="13"/>
+      <c r="N254" s="13"/>
+      <c r="O254" s="13"/>
+      <c r="P254" s="13"/>
     </row>
     <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="17"/>
-      <c r="B255" s="17"/>
-      <c r="E255" s="11"/>
+      <c r="A255" s="18"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="18"/>
+      <c r="G255" s="18"/>
       <c r="H255" s="11"/>
       <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
       <c r="P255" s="13"/>
-      <c r="T255"/>
     </row>
     <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="17"/>
-      <c r="J256"/>
-      <c r="K256" s="20"/>
-      <c r="L256" s="20"/>
-      <c r="M256" s="20"/>
-      <c r="N256" s="20"/>
-      <c r="O256" s="20"/>
-      <c r="P256" s="20"/>
-      <c r="Q256"/>
-      <c r="R256"/>
+      <c r="A256" s="18"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="18"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="18"/>
+      <c r="G256" s="18"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="18"/>
+      <c r="J256" s="8"/>
+      <c r="K256" s="19"/>
+      <c r="L256" s="19"/>
+      <c r="M256" s="19"/>
+      <c r="N256" s="19"/>
+      <c r="O256" s="19"/>
+      <c r="P256" s="19"/>
+      <c r="Q256" s="8"/>
+      <c r="R256" s="8"/>
+      <c r="S256" s="18"/>
+      <c r="T256" s="8"/>
     </row>
     <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="17"/>
-      <c r="J257"/>
-      <c r="K257" s="20"/>
-      <c r="L257" s="20"/>
-      <c r="M257" s="20"/>
-      <c r="N257" s="20"/>
-      <c r="O257" s="20"/>
-      <c r="P257" s="20"/>
-      <c r="Q257"/>
-      <c r="R257"/>
+      <c r="B257" s="17"/>
+      <c r="E257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="K257" s="13"/>
+      <c r="L257" s="13"/>
+      <c r="M257" s="13"/>
+      <c r="N257" s="13"/>
+      <c r="O257" s="13"/>
+      <c r="P257" s="13"/>
+      <c r="T257"/>
     </row>
     <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="14"/>
-      <c r="B258" s="17"/>
-      <c r="E258" s="11"/>
-      <c r="H258" s="11"/>
+      <c r="A258" s="17"/>
       <c r="J258"/>
       <c r="K258" s="20"/>
       <c r="L258" s="20"/>
@@ -4567,10 +4615,7 @@
       <c r="R258"/>
     </row>
     <row r="259" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="14"/>
-      <c r="B259" s="17"/>
-      <c r="E259" s="11"/>
-      <c r="H259" s="11"/>
+      <c r="A259" s="17"/>
       <c r="J259"/>
       <c r="K259" s="20"/>
       <c r="L259" s="20"/>
@@ -4584,7 +4629,8 @@
     <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="14"/>
       <c r="B260" s="17"/>
-      <c r="H260" s="21"/>
+      <c r="E260" s="11"/>
+      <c r="H260" s="11"/>
       <c r="J260"/>
       <c r="K260" s="20"/>
       <c r="L260" s="20"/>
@@ -4596,14 +4642,10 @@
       <c r="R260"/>
     </row>
     <row r="261" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="22"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="22"/>
-      <c r="D261" s="22"/>
-      <c r="E261" s="22"/>
-      <c r="F261" s="22"/>
-      <c r="G261" s="22"/>
-      <c r="H261" s="23"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="17"/>
+      <c r="E261" s="11"/>
+      <c r="H261" s="11"/>
       <c r="J261"/>
       <c r="K261" s="20"/>
       <c r="L261" s="20"/>
@@ -4611,31 +4653,44 @@
       <c r="N261" s="20"/>
       <c r="O261" s="20"/>
       <c r="P261" s="20"/>
-      <c r="Q261" s="20"/>
+      <c r="Q261"/>
       <c r="R261"/>
     </row>
     <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="14"/>
       <c r="B262" s="17"/>
-      <c r="K262" s="13"/>
-      <c r="L262" s="13"/>
-      <c r="M262" s="13"/>
-      <c r="N262" s="13"/>
-      <c r="O262" s="13"/>
-      <c r="P262" s="13"/>
+      <c r="H262" s="21"/>
+      <c r="J262"/>
+      <c r="K262" s="20"/>
+      <c r="L262" s="20"/>
+      <c r="M262" s="20"/>
+      <c r="N262" s="20"/>
+      <c r="O262" s="20"/>
+      <c r="P262" s="20"/>
+      <c r="Q262"/>
+      <c r="R262"/>
     </row>
     <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="9"/>
-      <c r="B263" s="10"/>
-      <c r="K263" s="13"/>
-      <c r="L263" s="13"/>
-      <c r="M263" s="13"/>
-      <c r="N263" s="13"/>
-      <c r="O263" s="13"/>
-      <c r="P263" s="13"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="23"/>
+      <c r="J263"/>
+      <c r="K263" s="20"/>
+      <c r="L263" s="20"/>
+      <c r="M263" s="20"/>
+      <c r="N263" s="20"/>
+      <c r="O263" s="20"/>
+      <c r="P263" s="20"/>
+      <c r="Q263" s="20"/>
+      <c r="R263"/>
     </row>
     <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="14"/>
-      <c r="B264" s="15"/>
+      <c r="B264" s="17"/>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
@@ -4644,8 +4699,8 @@
       <c r="P264" s="13"/>
     </row>
     <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="14"/>
-      <c r="B265" s="15"/>
+      <c r="A265" s="9"/>
+      <c r="B265" s="10"/>
       <c r="K265" s="13"/>
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
@@ -4655,7 +4710,7 @@
     </row>
     <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="14"/>
-      <c r="B266" s="17"/>
+      <c r="B266" s="15"/>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
@@ -4684,16 +4739,8 @@
       <c r="P268" s="13"/>
     </row>
     <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="18"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
-      <c r="H269" s="18"/>
-      <c r="I269" s="18"/>
-      <c r="J269" s="18"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="15"/>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
@@ -4702,30 +4749,26 @@
       <c r="P269" s="13"/>
     </row>
     <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="18"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="24"/>
-      <c r="F270" s="18"/>
-      <c r="G270" s="18"/>
-      <c r="H270" s="24"/>
-      <c r="I270" s="18"/>
-      <c r="J270" s="8"/>
-      <c r="K270" s="19"/>
-      <c r="L270" s="19"/>
-      <c r="M270" s="19"/>
-      <c r="N270" s="19"/>
-      <c r="O270" s="19"/>
-      <c r="P270" s="19"/>
-      <c r="Q270" s="8"/>
-      <c r="R270" s="8"/>
-      <c r="S270" s="18"/>
-      <c r="T270" s="8"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="17"/>
+      <c r="K270" s="13"/>
+      <c r="L270" s="13"/>
+      <c r="M270" s="13"/>
+      <c r="N270" s="13"/>
+      <c r="O270" s="13"/>
+      <c r="P270" s="13"/>
     </row>
     <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="17"/>
-      <c r="B271" s="17"/>
+      <c r="A271" s="18"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="18"/>
+      <c r="H271" s="18"/>
+      <c r="I271" s="18"/>
+      <c r="J271" s="18"/>
       <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
@@ -4734,30 +4777,38 @@
       <c r="P271" s="13"/>
     </row>
     <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B272" s="13"/>
-      <c r="J272"/>
-      <c r="K272" s="20"/>
-      <c r="L272" s="20"/>
-      <c r="M272" s="20"/>
-      <c r="N272" s="20"/>
-      <c r="O272" s="20"/>
-      <c r="P272" s="20"/>
-      <c r="Q272"/>
-      <c r="R272"/>
-    </row>
-    <row r="273" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B273" s="13"/>
-      <c r="J273"/>
-      <c r="K273" s="20"/>
-      <c r="L273" s="20"/>
-      <c r="M273" s="20"/>
-      <c r="N273" s="20"/>
-      <c r="O273" s="20"/>
-      <c r="P273" s="20"/>
-      <c r="Q273"/>
-      <c r="R273"/>
-    </row>
-    <row r="274" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="18"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="24"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="18"/>
+      <c r="H272" s="24"/>
+      <c r="I272" s="18"/>
+      <c r="J272" s="8"/>
+      <c r="K272" s="19"/>
+      <c r="L272" s="19"/>
+      <c r="M272" s="19"/>
+      <c r="N272" s="19"/>
+      <c r="O272" s="19"/>
+      <c r="P272" s="19"/>
+      <c r="Q272" s="8"/>
+      <c r="R272" s="8"/>
+      <c r="S272" s="18"/>
+      <c r="T272" s="8"/>
+    </row>
+    <row r="273" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="17"/>
+      <c r="B273" s="17"/>
+      <c r="K273" s="13"/>
+      <c r="L273" s="13"/>
+      <c r="M273" s="13"/>
+      <c r="N273" s="13"/>
+      <c r="O273" s="13"/>
+      <c r="P273" s="13"/>
+    </row>
+    <row r="274" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B274" s="13"/>
       <c r="J274"/>
       <c r="K274" s="20"/>
@@ -4769,7 +4820,7 @@
       <c r="Q274"/>
       <c r="R274"/>
     </row>
-    <row r="275" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B275" s="13"/>
       <c r="J275"/>
       <c r="K275" s="20"/>
@@ -4781,7 +4832,7 @@
       <c r="Q275"/>
       <c r="R275"/>
     </row>
-    <row r="276" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B276" s="13"/>
       <c r="J276"/>
       <c r="K276" s="20"/>
@@ -4793,7 +4844,7 @@
       <c r="Q276"/>
       <c r="R276"/>
     </row>
-    <row r="277" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="J277"/>
       <c r="K277" s="20"/>
@@ -4805,7 +4856,7 @@
       <c r="Q277"/>
       <c r="R277"/>
     </row>
-    <row r="278" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="J278"/>
       <c r="K278" s="20"/>
@@ -4817,7 +4868,7 @@
       <c r="Q278"/>
       <c r="R278"/>
     </row>
-    <row r="279" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="13"/>
       <c r="J279"/>
       <c r="K279" s="20"/>
@@ -4829,7 +4880,7 @@
       <c r="Q279"/>
       <c r="R279"/>
     </row>
-    <row r="280" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="13"/>
       <c r="J280"/>
       <c r="K280" s="20"/>
@@ -4841,7 +4892,7 @@
       <c r="Q280"/>
       <c r="R280"/>
     </row>
-    <row r="281" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="13"/>
       <c r="J281"/>
       <c r="K281" s="20"/>
@@ -4853,7 +4904,7 @@
       <c r="Q281"/>
       <c r="R281"/>
     </row>
-    <row r="282" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="13"/>
       <c r="J282"/>
       <c r="K282" s="20"/>
@@ -4865,7 +4916,7 @@
       <c r="Q282"/>
       <c r="R282"/>
     </row>
-    <row r="283" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="13"/>
       <c r="J283"/>
       <c r="K283" s="20"/>
@@ -4877,7 +4928,7 @@
       <c r="Q283"/>
       <c r="R283"/>
     </row>
-    <row r="284" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="13"/>
       <c r="J284"/>
       <c r="K284" s="20"/>
@@ -4889,7 +4940,7 @@
       <c r="Q284"/>
       <c r="R284"/>
     </row>
-    <row r="285" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="13"/>
       <c r="J285"/>
       <c r="K285" s="20"/>
@@ -4901,7 +4952,7 @@
       <c r="Q285"/>
       <c r="R285"/>
     </row>
-    <row r="286" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="13"/>
       <c r="J286"/>
       <c r="K286" s="20"/>
@@ -4913,7 +4964,7 @@
       <c r="Q286"/>
       <c r="R286"/>
     </row>
-    <row r="287" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="13"/>
       <c r="J287"/>
       <c r="K287" s="20"/>
@@ -4925,41 +4976,45 @@
       <c r="Q287"/>
       <c r="R287"/>
     </row>
-    <row r="288" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="13"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
-      <c r="K288" s="13"/>
-      <c r="L288" s="13"/>
-      <c r="M288" s="13"/>
-      <c r="N288" s="13"/>
-      <c r="O288" s="13"/>
-      <c r="P288" s="13"/>
+      <c r="J288"/>
+      <c r="K288" s="20"/>
+      <c r="L288" s="20"/>
+      <c r="M288" s="20"/>
+      <c r="N288" s="20"/>
+      <c r="O288" s="20"/>
+      <c r="P288" s="20"/>
+      <c r="Q288"/>
+      <c r="R288"/>
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="9"/>
-      <c r="B289" s="10"/>
-      <c r="K289" s="25"/>
-      <c r="L289" s="26"/>
-      <c r="M289" s="13"/>
-      <c r="N289" s="13"/>
-      <c r="O289" s="13"/>
-      <c r="P289" s="13"/>
+      <c r="B289" s="13"/>
+      <c r="J289"/>
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="20"/>
+      <c r="N289" s="20"/>
+      <c r="O289" s="20"/>
+      <c r="P289" s="20"/>
+      <c r="Q289"/>
+      <c r="R289"/>
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="14"/>
-      <c r="B290" s="15"/>
-      <c r="K290" s="27"/>
-      <c r="L290" s="26"/>
+      <c r="B290" s="13"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="K290" s="13"/>
+      <c r="L290" s="13"/>
       <c r="M290" s="13"/>
       <c r="N290" s="13"/>
       <c r="O290" s="13"/>
       <c r="P290" s="13"/>
     </row>
     <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="14"/>
-      <c r="B291" s="15"/>
-      <c r="K291" s="13"/>
+      <c r="A291" s="9"/>
+      <c r="B291" s="10"/>
+      <c r="K291" s="25"/>
       <c r="L291" s="26"/>
       <c r="M291" s="13"/>
       <c r="N291" s="13"/>
@@ -4968,19 +5023,19 @@
     </row>
     <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="14"/>
-      <c r="B292" s="17"/>
-      <c r="K292" s="13"/>
-      <c r="L292" s="13"/>
+      <c r="B292" s="15"/>
+      <c r="K292" s="27"/>
+      <c r="L292" s="26"/>
       <c r="M292" s="13"/>
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
       <c r="P292" s="13"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="14"/>
       <c r="B293" s="15"/>
       <c r="K293" s="13"/>
-      <c r="L293" s="13"/>
+      <c r="L293" s="26"/>
       <c r="M293" s="13"/>
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
@@ -4989,8 +5044,6 @@
     <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="14"/>
       <c r="B294" s="17"/>
-      <c r="H294" s="18"/>
-      <c r="I294" s="18"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
@@ -4998,16 +5051,9 @@
       <c r="O294" s="13"/>
       <c r="P294" s="13"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="18"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18"/>
-      <c r="H295" s="11"/>
-      <c r="I295" s="11"/>
+    <row r="295" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="14"/>
+      <c r="B295" s="15"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
@@ -5016,34 +5062,27 @@
       <c r="P295" s="13"/>
     </row>
     <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="18"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="18"/>
-      <c r="G296" s="18"/>
-      <c r="H296" s="24"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="17"/>
+      <c r="H296" s="18"/>
       <c r="I296" s="18"/>
-      <c r="J296" s="8"/>
-      <c r="K296" s="19"/>
-      <c r="L296" s="19"/>
-      <c r="M296" s="19"/>
-      <c r="N296" s="19"/>
-      <c r="O296" s="19"/>
-      <c r="P296" s="19"/>
-      <c r="Q296" s="8"/>
-      <c r="R296" s="8"/>
-      <c r="S296" s="18"/>
-      <c r="T296" s="8"/>
+      <c r="K296" s="13"/>
+      <c r="L296" s="13"/>
+      <c r="M296" s="13"/>
+      <c r="N296" s="13"/>
+      <c r="O296" s="13"/>
+      <c r="P296" s="13"/>
     </row>
     <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="17"/>
-      <c r="B297" s="17"/>
-      <c r="G297" s="17"/>
+      <c r="A297" s="18"/>
+      <c r="B297" s="10"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="18"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="18"/>
       <c r="H297" s="11"/>
       <c r="I297" s="11"/>
-      <c r="J297" s="11"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
@@ -5052,35 +5091,43 @@
       <c r="P297" s="13"/>
     </row>
     <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B298" s="13"/>
-      <c r="H298" s="11"/>
-      <c r="J298"/>
-      <c r="K298" s="20"/>
-      <c r="L298" s="20"/>
-      <c r="M298" s="20"/>
-      <c r="N298" s="20"/>
-      <c r="O298" s="20"/>
-      <c r="P298" s="20"/>
-      <c r="Q298"/>
-      <c r="R298"/>
+      <c r="A298" s="18"/>
+      <c r="B298" s="10"/>
+      <c r="C298" s="18"/>
+      <c r="D298" s="18"/>
+      <c r="E298" s="24"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="18"/>
+      <c r="H298" s="24"/>
+      <c r="I298" s="18"/>
+      <c r="J298" s="8"/>
+      <c r="K298" s="19"/>
+      <c r="L298" s="19"/>
+      <c r="M298" s="19"/>
+      <c r="N298" s="19"/>
+      <c r="O298" s="19"/>
+      <c r="P298" s="19"/>
+      <c r="Q298" s="8"/>
+      <c r="R298" s="8"/>
+      <c r="S298" s="18"/>
+      <c r="T298" s="8"/>
     </row>
     <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B299" s="13"/>
+      <c r="A299" s="17"/>
+      <c r="B299" s="17"/>
+      <c r="G299" s="17"/>
       <c r="H299" s="11"/>
-      <c r="J299"/>
-      <c r="K299" s="20"/>
-      <c r="L299" s="20"/>
-      <c r="M299" s="20"/>
-      <c r="N299" s="20"/>
-      <c r="O299" s="20"/>
-      <c r="P299" s="20"/>
-      <c r="Q299"/>
-      <c r="R299"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="13"/>
+      <c r="L299" s="13"/>
+      <c r="M299" s="13"/>
+      <c r="N299" s="13"/>
+      <c r="O299" s="13"/>
+      <c r="P299" s="13"/>
     </row>
     <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="17"/>
-      <c r="B300" s="17"/>
-      <c r="G300" s="17"/>
+      <c r="B300" s="13"/>
       <c r="H300" s="11"/>
       <c r="J300"/>
       <c r="K300" s="20"/>
@@ -5093,9 +5140,7 @@
       <c r="R300"/>
     </row>
     <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="17"/>
-      <c r="B301" s="17"/>
-      <c r="G301" s="17"/>
+      <c r="B301" s="13"/>
       <c r="H301" s="11"/>
       <c r="J301"/>
       <c r="K301" s="20"/>
@@ -5993,7 +6038,10 @@
       <c r="R360"/>
     </row>
     <row r="361" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B361" s="13"/>
+      <c r="A361" s="17"/>
+      <c r="B361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="H361" s="11"/>
       <c r="J361"/>
       <c r="K361" s="20"/>
       <c r="L361" s="20"/>
@@ -6005,15 +6053,42 @@
       <c r="R361"/>
     </row>
     <row r="362" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="17"/>
       <c r="B362" s="17"/>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
-      <c r="K362" s="13"/>
-      <c r="L362" s="13"/>
-      <c r="M362" s="13"/>
-      <c r="N362" s="13"/>
-      <c r="O362" s="13"/>
-      <c r="P362" s="13"/>
+      <c r="G362" s="17"/>
+      <c r="H362" s="11"/>
+      <c r="J362"/>
+      <c r="K362" s="20"/>
+      <c r="L362" s="20"/>
+      <c r="M362" s="20"/>
+      <c r="N362" s="20"/>
+      <c r="O362" s="20"/>
+      <c r="P362" s="20"/>
+      <c r="Q362"/>
+      <c r="R362"/>
+    </row>
+    <row r="363" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B363" s="13"/>
+      <c r="J363"/>
+      <c r="K363" s="20"/>
+      <c r="L363" s="20"/>
+      <c r="M363" s="20"/>
+      <c r="N363" s="20"/>
+      <c r="O363" s="20"/>
+      <c r="P363" s="20"/>
+      <c r="Q363"/>
+      <c r="R363"/>
+    </row>
+    <row r="364" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B364" s="17"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
+      <c r="K364" s="13"/>
+      <c r="L364" s="13"/>
+      <c r="M364" s="13"/>
+      <c r="N364" s="13"/>
+      <c r="O364" s="13"/>
+      <c r="P364" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4084F08-EEBE-CE45-BDE7-E86250724D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD20F31-9E7C-D249-A4C4-0B04B0D51951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36220" yWindow="2440" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Database</t>
   </si>
@@ -224,9 +224,6 @@
     <t>natural gas, high pressure</t>
   </si>
   <si>
-    <t>Originally, 4.86kg, then averaged with value from Postels et al., 2016, and converted to cubic meters.</t>
-  </si>
-  <si>
     <t>market for tap water</t>
   </si>
   <si>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>Assumed 10% of cooling water is evaporated.</t>
+  </si>
+  <si>
+    <t>0.3 kWh/kWh H2 according to https://hydrogeneurope.eu/wp-content/uploads/2022/10/ewp_kompakt_pyrolyse_english_web.pdf</t>
+  </si>
+  <si>
+    <t>1.7 kWh CNG/kWh H2, according to https://hydrogeneurope.eu/wp-content/uploads/2022/10/ewp_kompakt_pyrolyse_english_web.pdf. 36 MJ/m3 CNG. Hence, 0.17 m3 CNG/kWh H2 and 5.67 m3 CNG/kg H2. Pastels et al. Show 6.57 m3.</t>
   </si>
 </sst>
 </file>
@@ -686,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -837,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1393,8 +1396,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="33">
-        <f>(AVERAGE(5.21, 4.86)/0.735)*B8</f>
-        <v>6.5719627473480067</v>
+        <v>5.67</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>22</v>
@@ -1409,14 +1411,14 @@
         <v>61</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I22" s="12">
         <v>2</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>1.8828125317700346</v>
+        <v>1.7351891177396608</v>
       </c>
       <c r="K22" s="20">
         <v>1.2</v>
@@ -1446,7 +1448,7 @@
     </row>
     <row r="23" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="33">
         <f>8.08*B8</f>
@@ -1462,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="12">
         <v>2</v>
@@ -1499,7 +1501,7 @@
     </row>
     <row r="24" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="33">
         <f>B23*0.9/1000</f>
@@ -1509,13 +1511,13 @@
         <v>17</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="12">
         <v>0</v>
@@ -1532,7 +1534,7 @@
     </row>
     <row r="25" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="33">
         <f>B23*0.1/1000</f>
@@ -1548,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25"/>
       <c r="K25" s="20"/>
@@ -1565,8 +1567,8 @@
         <v>34</v>
       </c>
       <c r="B26" s="33">
-        <f>7.23*B8</f>
-        <v>6.9361943669403523</v>
+        <f>0.3*(120/3.6)*B8</f>
+        <v>9.5936298297930183</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>22</v>
@@ -1580,12 +1582,15 @@
       <c r="G26" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="H26" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I26" s="12">
         <v>2</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>1.9367532620008818</v>
+        <v>2.2610993188242543</v>
       </c>
       <c r="K26" s="20">
         <v>1.2</v>
@@ -1700,7 +1705,7 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
+      <c r="B31" s="13"/>
       <c r="J31"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
@@ -1712,7 +1717,7 @@
       <c r="R31"/>
     </row>
     <row r="32" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
+      <c r="B32" s="13"/>
       <c r="J32"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
@@ -1724,7 +1729,7 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
+      <c r="B33" s="13"/>
       <c r="J33"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -1736,7 +1741,7 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
+      <c r="B34" s="13"/>
       <c r="J34"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>

--- a/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD20F31-9E7C-D249-A4C4-0B04B0D51951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF463D1-B247-3648-9071-9AC09BEA4812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33180" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -154,101 +154,101 @@
     <t>hydrogen production, gaseous, 100 bar, from methane pyrolysis</t>
   </si>
   <si>
-    <t>1 kg H2 produced by pyrolyzing methane. Pyrolysis processes decompose hydrocarbons into solid carbon and hydrogen at high temperatures (thermally or biologicalally). As no oxygen is present, no carbon oxides are formed, potentially eliminating the need for secondary processing steps such as the WGSR. The higher H2 concentration of the product gas stream also has considerable potential for minimising downstream clean-up processes. From a carbon-storage perspective, pyrolysis processes offer the advantage of storing a solid C-product as opposed to gaseous CO2. There is an allocation between the production of hydrogen and black carbon, based on their respective market value -- see Von Wald et al. 2020 for black carbon, and Florian Wirth, Green Hydrogen Production for Heavy-Duty Trucks, 2021, for hydrogen price in Switzerland. Source: Amjad Al-Qahtani, Brett Parkinson, Klaus Hellgardt, Nilay Shah, Gonzalo Guillen-Gosalbez, Uncovering the true cost of hydrogen production routes using life cycle monetisation, Applied Energy, 2021, https://doi.org/10.1016/j.apenergy.2020.115958.
+    <t>market value of hydrogen [CHF/kg]</t>
+  </si>
+  <si>
+    <t>market value of black carbon [CHF/kg]</t>
+  </si>
+  <si>
+    <t>allocation factor for hydrogen</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 100 bar</t>
+  </si>
+  <si>
+    <t>Infrastructure - membrane</t>
+  </si>
+  <si>
+    <t>market for palladium</t>
+  </si>
+  <si>
+    <t>palladium</t>
+  </si>
+  <si>
+    <t>market for steel, chromium steel 18/8</t>
+  </si>
+  <si>
+    <t>steel, chromium steel 18/8</t>
+  </si>
+  <si>
+    <t>Infrastructure - heat exchanger</t>
+  </si>
+  <si>
+    <t>market for tin</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>Infrastructure - reactor</t>
+  </si>
+  <si>
+    <t>Infrastructure - filter</t>
+  </si>
+  <si>
+    <t>market for silicon carbide</t>
+  </si>
+  <si>
+    <t>silicon carbide</t>
+  </si>
+  <si>
+    <t>Infrastructure - burner</t>
+  </si>
+  <si>
+    <t>market for air compressor, screw-type compressor, 4kW</t>
+  </si>
+  <si>
+    <t>air compressor, screw-type compressor, 4kW</t>
+  </si>
+  <si>
+    <t>Infrastructure - compressor</t>
+  </si>
+  <si>
+    <t>market for natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Assumed 90% of cooling water is released back.</t>
+  </si>
+  <si>
+    <t>Assumed 10% of cooling water is evaporated.</t>
+  </si>
+  <si>
+    <t>0.3 kWh/kWh H2 according to https://hydrogeneurope.eu/wp-content/uploads/2022/10/ewp_kompakt_pyrolyse_english_web.pdf</t>
+  </si>
+  <si>
+    <t>1.7 kWh CNG/kWh H2, according to https://hydrogeneurope.eu/wp-content/uploads/2022/10/ewp_kompakt_pyrolyse_english_web.pdf. 36 MJ/m3 CNG. Hence, 0.17 m3 CNG/kWh H2 and 5.67 m3 CNG/kg H2. Pastels et al. Show 6.57 m3.</t>
+  </si>
+  <si>
+    <t>1 kg H2 produced by pyrolyzing methane. NOTE: this is using a molten-metal reactor technology, particularly tin-intensive. Other technologies exist, which do not require metals to such an extent. Pyrolysis processes decompose hydrocarbons into solid carbon and hydrogen at high temperatures (thermally or biologicalally). As no oxygen is present, no carbon oxides are formed, potentially eliminating the need for secondary processing steps such as the WGSR. The higher H2 concentration of the product gas stream also has considerable potential for minimising downstream clean-up processes. From a carbon-storage perspective, pyrolysis processes offer the advantage of storing a solid C-product as opposed to gaseous CO2. There is an allocation between the production of hydrogen and black carbon, based on their respective market value -- see Von Wald et al. 2020 for black carbon, and Florian Wirth, Green Hydrogen Production for Heavy-Duty Trucks, 2021, for hydrogen price in Switzerland. Source: Amjad Al-Qahtani, Brett Parkinson, Klaus Hellgardt, Nilay Shah, Gonzalo Guillen-Gosalbez, Uncovering the true cost of hydrogen production routes using life cycle monetisation, Applied Energy, 2021, https://doi.org/10.1016/j.apenergy.2020.115958.
 The energy required is from DOI:10.1002/ceat.201600023. For pyrolysis, it can be provided both electrically and by burning some of the natural gas or pyrolysis products. For the comparison of technologies, electrical resistance heating is assumed, as use of this type of heating is deemed to be most practicable. The power requirement of 7.23 MWhel/ton H2 is based on thermodynamic calculations. These take into account both the energy losses during heat recovery and the compression power of 2 MWhel/ton H2, to compress pyrolysis hydrogen from 2 bar to 100 bar with three interim cooling stages. Inventories consolidated with numbers for infrastructures from Appendix A1 from Postels et al., 2016 https://doi.org/10.1016/j.ijhydene.2016.09.167. Missing input of quartz for reactor, as unavailable in ecoinvent.</t>
-  </si>
-  <si>
-    <t>market value of hydrogen [CHF/kg]</t>
-  </si>
-  <si>
-    <t>market value of black carbon [CHF/kg]</t>
-  </si>
-  <si>
-    <t>allocation factor for hydrogen</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 100 bar</t>
-  </si>
-  <si>
-    <t>Infrastructure - membrane</t>
-  </si>
-  <si>
-    <t>market for palladium</t>
-  </si>
-  <si>
-    <t>palladium</t>
-  </si>
-  <si>
-    <t>market for steel, chromium steel 18/8</t>
-  </si>
-  <si>
-    <t>steel, chromium steel 18/8</t>
-  </si>
-  <si>
-    <t>Infrastructure - heat exchanger</t>
-  </si>
-  <si>
-    <t>market for tin</t>
-  </si>
-  <si>
-    <t>tin</t>
-  </si>
-  <si>
-    <t>Infrastructure - reactor</t>
-  </si>
-  <si>
-    <t>Infrastructure - filter</t>
-  </si>
-  <si>
-    <t>market for silicon carbide</t>
-  </si>
-  <si>
-    <t>silicon carbide</t>
-  </si>
-  <si>
-    <t>Infrastructure - burner</t>
-  </si>
-  <si>
-    <t>market for air compressor, screw-type compressor, 4kW</t>
-  </si>
-  <si>
-    <t>air compressor, screw-type compressor, 4kW</t>
-  </si>
-  <si>
-    <t>Infrastructure - compressor</t>
-  </si>
-  <si>
-    <t>market for natural gas, high pressure</t>
-  </si>
-  <si>
-    <t>natural gas, high pressure</t>
-  </si>
-  <si>
-    <t>market for tap water</t>
-  </si>
-  <si>
-    <t>tap water</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>Assumed 90% of cooling water is released back.</t>
-  </si>
-  <si>
-    <t>Assumed 10% of cooling water is evaporated.</t>
-  </si>
-  <si>
-    <t>0.3 kWh/kWh H2 according to https://hydrogeneurope.eu/wp-content/uploads/2022/10/ewp_kompakt_pyrolyse_english_web.pdf</t>
-  </si>
-  <si>
-    <t>1.7 kWh CNG/kWh H2, according to https://hydrogeneurope.eu/wp-content/uploads/2022/10/ewp_kompakt_pyrolyse_english_web.pdf. 36 MJ/m3 CNG. Hence, 0.17 m3 CNG/kWh H2 and 5.67 m3 CNG/kg H2. Pastels et al. Show 6.57 m3.</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="6" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="31">
         <v>12</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="7" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="31">
         <v>0.13</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="8" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="32">
         <f>(1*B6)/((1*B6)+(3.91*B7))</f>
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -840,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -971,7 +971,7 @@
         <v>hydrogen, gaseous, 100 bar</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14"/>
       <c r="K14" s="20"/>
@@ -986,9 +986,10 @@
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="33">
+        <f>0.000011</f>
         <v>1.1E-5</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1002,10 +1003,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="12">
         <v>2</v>
@@ -1056,6 +1057,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="33">
+        <f>0.00000733</f>
         <v>7.3300000000000001E-6</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1071,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="12">
         <v>2</v>
@@ -1118,7 +1120,7 @@
     </row>
     <row r="17" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="33">
         <v>2.5899999999999999E-3</v>
@@ -1133,10 +1135,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I17" s="12">
         <v>2</v>
@@ -1173,7 +1175,7 @@
     </row>
     <row r="18" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="33">
         <v>3.3599999999999998E-2</v>
@@ -1188,10 +1190,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="I18" s="12">
         <v>2</v>
@@ -1228,7 +1230,7 @@
     </row>
     <row r="19" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="33">
         <v>5.0699999999999996E-4</v>
@@ -1243,10 +1245,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="12">
         <v>2</v>
@@ -1283,7 +1285,7 @@
     </row>
     <row r="20" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="33">
         <v>4.1999999999999996E-6</v>
@@ -1298,10 +1300,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="I20" s="12">
         <v>2</v>
@@ -1338,7 +1340,7 @@
     </row>
     <row r="21" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="33">
         <v>6.36E-8</v>
@@ -1353,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="I21" s="12">
         <v>2</v>
@@ -1393,7 +1395,7 @@
     </row>
     <row r="22" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="33">
         <v>5.67</v>
@@ -1408,10 +1410,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="12">
         <v>2</v>
@@ -1448,7 +1450,7 @@
     </row>
     <row r="23" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="33">
         <f>8.08*B8</f>
@@ -1464,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="12">
         <v>2</v>
@@ -1501,7 +1503,7 @@
     </row>
     <row r="24" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="33">
         <f>B23*0.9/1000</f>
@@ -1511,13 +1513,13 @@
         <v>17</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="12">
         <v>0</v>
@@ -1534,7 +1536,7 @@
     </row>
     <row r="25" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="33">
         <f>B23*0.1/1000</f>
@@ -1550,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25"/>
       <c r="K25" s="20"/>
@@ -1583,7 +1585,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="12">
         <v>2</v>
